--- a/src/assets/ExcelSampleFile/orderQuantity_Sample.xlsx
+++ b/src/assets/ExcelSampleFile/orderQuantity_Sample.xlsx
@@ -1,41 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tradevogue\eCommerce-frontend\src\assets\ExcelSampleFile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0628BD6E-6A0C-452E-9962-6362BC6266C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Quantities</t>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -73,26 +69,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,23 +85,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -319,7 +365,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -337,7 +383,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -366,7 +412,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -391,7 +437,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -416,7 +462,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -441,7 +487,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -466,7 +512,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -491,7 +537,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -516,7 +562,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -541,7 +587,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -566,7 +612,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -579,9 +625,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -598,7 +650,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -616,7 +668,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -641,7 +693,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -666,7 +718,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -691,7 +743,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +768,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -741,7 +793,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,7 +818,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -791,7 +843,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -816,7 +868,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -841,7 +893,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -854,9 +906,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -870,7 +928,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -888,7 +946,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +975,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,7 +1000,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +1025,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +1050,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1075,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1100,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,7 +1125,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1150,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1117,7 +1175,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,31 +1188,38 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6094" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="6" width="8.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1162,7 +1227,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>100</v>
       </c>
@@ -1171,7 +1236,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>122</v>
       </c>
@@ -1180,7 +1245,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>120</v>
       </c>
@@ -1189,7 +1254,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>150</v>
       </c>
@@ -1198,7 +1263,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>500</v>
       </c>
@@ -1207,28 +1272,28 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1237,7 +1302,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
